--- a/rrd/AppData/Opp_DefineTeamSetUp.xlsx
+++ b/rrd/AppData/Opp_DefineTeamSetUp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RRD\RRD_Opportunity\rrd\AppData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rai Sigh\git\RRD_Opportunity\rrd\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF12F75-7A74-4710-9045-C044021F3D46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCF2E91-B5FE-471C-84C6-37BA30105F41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opp_Keywords" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="64">
   <si>
     <t>Team</t>
   </si>
@@ -171,9 +171,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>8/30/2020</t>
-  </si>
-  <si>
     <t>Existing Customer - Downgrade</t>
   </si>
   <si>
@@ -217,13 +214,19 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>10/01/2020</t>
+  </si>
+  <si>
+    <t>10/02/2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +266,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -639,7 +648,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -796,13 +805,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -898,7 +907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF933D0-808E-47FF-B259-FC1384D269A7}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -957,7 +966,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>19</v>
@@ -974,7 +983,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>20</v>
@@ -991,7 +1000,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>21</v>
@@ -1002,13 +1011,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>22</v>
@@ -1019,13 +1028,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>23</v>
@@ -1036,30 +1045,30 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
         <v>57</v>
-      </c>
-      <c r="F8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>24</v>
@@ -1070,13 +1079,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>25</v>
@@ -1087,13 +1096,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>26</v>
@@ -1104,13 +1113,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>27</v>
@@ -1121,13 +1130,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>28</v>
@@ -1138,13 +1147,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>29</v>
@@ -1163,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2229F5D1-4B63-41D4-AF63-B15F81D1C3E8}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,13 +1218,13 @@
         <v>45</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>44</v>
@@ -1235,13 +1244,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>46</v>
@@ -1261,13 +1270,13 @@
         <v>45</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>44</v>
@@ -1287,13 +1296,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>46</v>
@@ -1310,16 +1319,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>44</v>
@@ -1339,13 +1348,13 @@
         <v>17</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>46</v>
@@ -1365,13 +1374,13 @@
         <v>45</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>44</v>
@@ -1391,13 +1400,13 @@
         <v>17</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>46</v>
@@ -1417,13 +1426,13 @@
         <v>45</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>44</v>
@@ -1443,13 +1452,13 @@
         <v>17</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>46</v>
@@ -1466,16 +1475,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>44</v>
@@ -1495,13 +1504,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>46</v>
@@ -1518,16 +1527,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>44</v>
@@ -1536,10 +1545,10 @@
         <v>44</v>
       </c>
       <c r="G14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" t="s">
         <v>57</v>
-      </c>
-      <c r="H14" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1547,13 +1556,13 @@
         <v>17</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>46</v>
@@ -1562,10 +1571,10 @@
         <v>46</v>
       </c>
       <c r="G15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" t="s">
         <v>57</v>
-      </c>
-      <c r="H15" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1573,13 +1582,13 @@
         <v>45</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>44</v>
@@ -1599,13 +1608,13 @@
         <v>17</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>46</v>
@@ -1625,13 +1634,13 @@
         <v>45</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>44</v>
@@ -1651,13 +1660,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>46</v>
@@ -1677,13 +1686,13 @@
         <v>45</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>44</v>
@@ -1703,13 +1712,13 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>46</v>
@@ -1726,16 +1735,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>44</v>
@@ -1755,13 +1764,13 @@
         <v>17</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>46</v>
@@ -1778,16 +1787,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>44</v>
@@ -1807,13 +1816,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>46</v>
@@ -1830,16 +1839,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>44</v>
@@ -1859,13 +1868,13 @@
         <v>17</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>46</v>
@@ -1881,6 +1890,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/rrd/AppData/Opp_DefineTeamSetUp.xlsx
+++ b/rrd/AppData/Opp_DefineTeamSetUp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rai Sigh\git\RRD_Opportunity\rrd\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCF2E91-B5FE-471C-84C6-37BA30105F41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3400ADDE-91FD-4D03-94BF-15DA425F4FCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opp_Keywords" sheetId="8" r:id="rId1"/>
@@ -907,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF933D0-808E-47FF-B259-FC1384D269A7}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1172,7 +1172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2229F5D1-4B63-41D4-AF63-B15F81D1C3E8}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26:D27"/>
     </sheetView>
   </sheetViews>

--- a/rrd/AppData/Opp_DefineTeamSetUp.xlsx
+++ b/rrd/AppData/Opp_DefineTeamSetUp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rai Sigh\git\RRD_Opportunity\rrd\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3400ADDE-91FD-4D03-94BF-15DA425F4FCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC7FBBB-507E-4953-A65B-012885FBC663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opp_Keywords" sheetId="8" r:id="rId1"/>
@@ -907,7 +907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF933D0-808E-47FF-B259-FC1384D269A7}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1172,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2229F5D1-4B63-41D4-AF63-B15F81D1C3E8}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
